--- a/POC_01/src/main/resources/Server/Server.xlsx
+++ b/POC_01/src/main/resources/Server/Server.xlsx
@@ -1,21 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Social" sheetId="1" r:id="rId1"/>
+    <sheet name="News" sheetId="2" r:id="rId2"/>
+    <sheet name="Ecomerce" sheetId="3" r:id="rId3"/>
+    <sheet name="Educational" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+  <si>
+    <t>UrlID</t>
+  </si>
+  <si>
+    <t>DomainFlag</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category </t>
+  </si>
+  <si>
+    <t>4871</t>
+  </si>
+  <si>
+    <t>4872</t>
+  </si>
+  <si>
+    <t>4873</t>
+  </si>
+  <si>
+    <t>4874</t>
+  </si>
+  <si>
+    <t>4875</t>
+  </si>
+  <si>
+    <t>4876</t>
+  </si>
+  <si>
+    <t>4877</t>
+  </si>
+  <si>
+    <t>4878</t>
+  </si>
+  <si>
+    <t>4879</t>
+  </si>
+  <si>
+    <t>4e62f7e7ebe0465088441310c850a60a</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Domain_md</t>
+  </si>
+  <si>
+    <t>UpdatedDate</t>
+  </si>
+  <si>
+    <t>/amazon-fashion</t>
+  </si>
+  <si>
+    <t>/complete-wordpress-course</t>
+  </si>
+  <si>
+    <t>/courses/development</t>
+  </si>
+  <si>
+    <t>/the-complete-guide-to-angular-2</t>
+  </si>
+  <si>
+    <t>/gp/video</t>
+  </si>
+  <si>
+    <t>/news</t>
+  </si>
+  <si>
+    <t>/india-news/centre-plans-ahead-as-indias-elderly-population-to-cross-340-million-by-2050-1898381</t>
+  </si>
+  <si>
+    <t>/news/harley-looking-guide-come-hand-140122669.html</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,14 +127,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +229,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +437,388 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="D23" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/POC_01/src/main/resources/Server/Server.xlsx
+++ b/POC_01/src/main/resources/Server/Server.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Social" sheetId="1" r:id="rId1"/>
+    <sheet name="Social" sheetId="5" r:id="rId1"/>
     <sheet name="News" sheetId="2" r:id="rId2"/>
     <sheet name="Ecomerce" sheetId="3" r:id="rId3"/>
     <sheet name="Educational" sheetId="4" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>UrlID</t>
   </si>
@@ -92,6 +92,36 @@
   </si>
   <si>
     <t>/news/harley-looking-guide-come-hand-140122669.html</t>
+  </si>
+  <si>
+    <t>facebook.com</t>
+  </si>
+  <si>
+    <t>udemy.com</t>
+  </si>
+  <si>
+    <t>ndtv.com</t>
+  </si>
+  <si>
+    <t>abpnews.xom</t>
+  </si>
+  <si>
+    <t>twitter.com</t>
+  </si>
+  <si>
+    <t>facebook.com/video</t>
+  </si>
+  <si>
+    <t>ndtv.com/news</t>
+  </si>
+  <si>
+    <t>ddnational.com</t>
+  </si>
+  <si>
+    <t>zeetv.com/entertainment</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -438,19 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -486,6 +512,12 @@
       <c r="D2" s="2">
         <v>43322</v>
       </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -500,6 +532,12 @@
       <c r="D3" s="2">
         <v>43323</v>
       </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -514,6 +552,12 @@
       <c r="D4" s="2">
         <v>43324</v>
       </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -528,6 +572,12 @@
       <c r="D5" s="2">
         <v>43325</v>
       </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -542,6 +592,12 @@
       <c r="D6" s="2">
         <v>43326</v>
       </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -556,6 +612,12 @@
       <c r="D7" s="2">
         <v>43327</v>
       </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -570,6 +632,12 @@
       <c r="D8" s="2">
         <v>43328</v>
       </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -584,6 +652,12 @@
       <c r="D9" s="2">
         <v>43329</v>
       </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -598,71 +672,12 @@
       <c r="D10" s="2">
         <v>43330</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="D23" s="2"/>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/POC_01/src/main/resources/Server/Server.xlsx
+++ b/POC_01/src/main/resources/Server/Server.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>UrlID</t>
   </si>
@@ -121,7 +121,16 @@
     <t>zeetv.com/entertainment</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -471,11 +480,13 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -515,7 +526,7 @@
       <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -535,8 +546,8 @@
       <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
-        <v>34</v>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -555,8 +566,8 @@
       <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
-        <v>34</v>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -575,8 +586,8 @@
       <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
-        <v>34</v>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -595,7 +606,7 @@
       <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -615,7 +626,7 @@
       <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -635,8 +646,8 @@
       <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" t="s">
-        <v>34</v>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -655,8 +666,8 @@
       <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
-        <v>34</v>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -675,8 +686,8 @@
       <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
-        <v>34</v>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/POC_01/src/main/resources/Server/Server.xlsx
+++ b/POC_01/src/main/resources/Server/Server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Social" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="76">
   <si>
     <t>UrlID</t>
   </si>
@@ -121,16 +121,130 @@
     <t>zeetv.com/entertainment</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>www.twitter.com/login?lang=en</t>
+  </si>
+  <si>
+    <t>www.facebook.com/</t>
+  </si>
+  <si>
+    <t>www.web.whatsapp.com/🌐/en</t>
+  </si>
+  <si>
+    <t>www.youtube.com/</t>
+  </si>
+  <si>
+    <t>www.snapchat.com/</t>
+  </si>
+  <si>
+    <t>4880</t>
+  </si>
+  <si>
+    <t>4881</t>
+  </si>
+  <si>
+    <t>4882</t>
+  </si>
+  <si>
+    <t>4883</t>
+  </si>
+  <si>
+    <t>4884</t>
+  </si>
+  <si>
+    <t>www.timesofindia.indiatimes.com/</t>
+  </si>
+  <si>
+    <t>www.inshorts.com/</t>
+  </si>
+  <si>
+    <t>www.aajtak.intoday.in/</t>
+  </si>
+  <si>
+    <t>www.zeenews.india.com/</t>
+  </si>
+  <si>
+    <t>www.indiatoday.in/</t>
+  </si>
+  <si>
+    <t>www.snapdeal.com/</t>
+  </si>
+  <si>
+    <t>www.flipkart.com/</t>
+  </si>
+  <si>
+    <t>www.shopclues.com</t>
+  </si>
+  <si>
+    <t>www.ebay.in/</t>
+  </si>
+  <si>
+    <t>www.clubfactory.com/home.html</t>
+  </si>
+  <si>
+    <t>www.shein.in/</t>
+  </si>
+  <si>
+    <t>www.udemy.com/complete-wordpress-course</t>
+  </si>
+  <si>
+    <t>www.udemy.com/courses/development</t>
+  </si>
+  <si>
+    <t>www.udemy.com/complete-python-bootcamp</t>
+  </si>
+  <si>
+    <t>www.udemy.com/the-complete-guide-to-angular-2</t>
+  </si>
+  <si>
+    <t>www.indiaeducationdiary.in/category/book-literature</t>
+  </si>
+  <si>
+    <t>www.indiaeducationdiary.in/category/state-news/delhi</t>
+  </si>
+  <si>
+    <t>www.seleniumhq.org/download/maven.jsp</t>
+  </si>
+  <si>
+    <t>www.mvnrepository.com/artifact/org.seleniumhq.selenium</t>
+  </si>
+  <si>
+    <t>www.mvnrepository.com/artifact/io.rest-assured/rest-assured</t>
+  </si>
+  <si>
+    <t>www.mvnrepository.com/artifact/org.apache.logging.log4j/log4j-core</t>
+  </si>
+  <si>
+    <t>www.mvnrepository.com/artifact/org.seleniumhq.selenium/selenium-java</t>
+  </si>
+  <si>
+    <t>www.mvnrepository.com/artifact/org.testng/testng</t>
+  </si>
+  <si>
+    <t>www.amazon.com/amazon-fashion</t>
+  </si>
+  <si>
+    <t>www.amazon.com/gp/video</t>
+  </si>
+  <si>
+    <t>www.ndtv.com/news</t>
+  </si>
+  <si>
+    <t>www.ndtv.com/india-news/centre-plans-ahead-as-indias-elderly-population-to-cross-340-million-by-2050-1898381</t>
+  </si>
+  <si>
+    <t>www.yahoo.com/news</t>
+  </si>
+  <si>
+    <t>www.yahoo.com/news/harley-looking-guide-come-hand-140122669.html</t>
+  </si>
+  <si>
+    <t>www.finance.yahoo.com/news/assassins-creed-odyssey-preview-unleash-inner-spartan-213608650.html</t>
+  </si>
+  <si>
+    <t>16dc54c4d17c76e873c3de592202ac63</t>
   </si>
 </sst>
 </file>
@@ -169,10 +283,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,20 +591,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,16 +615,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -520,17 +631,14 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2">
-        <v>43322</v>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -540,17 +648,14 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2">
-        <v>43323</v>
+      <c r="D3" t="s">
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -560,17 +665,14 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2">
-        <v>43324</v>
+      <c r="D4" t="s">
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -580,17 +682,14 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2">
-        <v>43325</v>
+      <c r="D5" t="s">
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -600,17 +699,14 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2">
-        <v>43326</v>
+      <c r="D6" t="s">
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -620,17 +716,14 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2">
-        <v>43327</v>
+      <c r="D7" t="s">
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -640,17 +733,14 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2">
-        <v>43328</v>
+      <c r="D8" t="s">
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -660,17 +750,14 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2">
-        <v>43329</v>
+      <c r="D9" t="s">
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -680,14 +767,96 @@
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2">
-        <v>43330</v>
+      <c r="D10" t="s">
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
         <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -697,15 +866,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -729,18 +900,185 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3">
+        <v>43325</v>
+      </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="E3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43325</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="E4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43325</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3">
+        <v>43325</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3">
+        <v>43325</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3">
+        <v>43325</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3">
+        <v>43325</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3">
+        <v>43325</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3">
+        <v>43325</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3">
+        <v>43325</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3">
+        <v>43325</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3">
+        <v>43325</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3">
+        <v>43325</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -750,15 +1088,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -789,6 +1127,46 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -798,15 +1176,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -844,6 +1222,66 @@
         <v>20</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POC_01/src/main/resources/Server/Server.xlsx
+++ b/POC_01/src/main/resources/Server/Server.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Social" sheetId="5" r:id="rId1"/>
+    <sheet name="Social" sheetId="6" r:id="rId1"/>
     <sheet name="News" sheetId="2" r:id="rId2"/>
     <sheet name="Ecomerce" sheetId="3" r:id="rId3"/>
     <sheet name="Educational" sheetId="4" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="77">
   <si>
     <t>UrlID</t>
   </si>
@@ -73,15 +73,6 @@
     <t>/amazon-fashion</t>
   </si>
   <si>
-    <t>/complete-wordpress-course</t>
-  </si>
-  <si>
-    <t>/courses/development</t>
-  </si>
-  <si>
-    <t>/the-complete-guide-to-angular-2</t>
-  </si>
-  <si>
     <t>/gp/video</t>
   </si>
   <si>
@@ -121,16 +112,13 @@
     <t>zeetv.com/entertainment</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>www.twitter.com/login?lang=en</t>
   </si>
   <si>
     <t>www.facebook.com/</t>
   </si>
   <si>
-    <t>www.web.whatsapp.com/🌐/en</t>
+    <t>www.web.whatsapp.com/??/en</t>
   </si>
   <si>
     <t>www.youtube.com/</t>
@@ -245,16 +233,39 @@
   </si>
   <si>
     <t>16dc54c4d17c76e873c3de592202ac63</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -277,18 +288,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -593,15 +607,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -632,10 +648,10 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -649,10 +665,10 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -666,10 +682,10 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -683,10 +699,10 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -700,10 +716,10 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -717,10 +733,10 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -734,10 +750,10 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -751,10 +767,10 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -768,15 +784,15 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
@@ -785,32 +801,32 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
+        <v>76</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
@@ -818,16 +834,16 @@
       <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
+      <c r="D13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -836,15 +852,15 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
         <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -853,13 +869,17 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1"/>
+    <hyperlink ref="D13" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -874,9 +894,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="106.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -901,7 +921,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -910,12 +930,12 @@
         <v>43325</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -924,12 +944,12 @@
         <v>43325</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -938,12 +958,12 @@
         <v>43325</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -952,12 +972,12 @@
         <v>43325</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -966,12 +986,12 @@
         <v>43325</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -980,12 +1000,12 @@
         <v>43325</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -994,12 +1014,12 @@
         <v>43325</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -1008,12 +1028,12 @@
         <v>43325</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -1022,12 +1042,12 @@
         <v>43325</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1036,12 +1056,12 @@
         <v>43325</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1050,12 +1070,12 @@
         <v>43325</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1064,12 +1084,12 @@
         <v>43325</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1078,7 +1098,7 @@
         <v>43325</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +1116,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1126,47 +1146,47 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1176,15 +1196,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1209,77 +1229,62 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
